--- a/evaluation_results/ragas_evaluation_results.csv.xlsx
+++ b/evaluation_results/ragas_evaluation_results.csv.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\OneDrive\Asztali gép\Szakdolgozatv2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\OneDrive\Asztali gép\Szakdolgozatv2\evaluation_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99A461C7-1DEB-43D7-B5D4-7DBFC9F31531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF8A88AF-56F0-4AFE-AE67-538EE5127D05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6E9E6A22-8D20-473E-861C-4F173EC5FE84}"/>
   </bookViews>
@@ -1280,8 +1280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7385282-7105-4852-B3DE-6B6BF293A3C9}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1321,7 +1321,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1347,7 +1347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1373,7 +1373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>19</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>0.92503589698381505</v>
@@ -1399,7 +1399,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1425,7 +1425,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -1451,7 +1451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -1477,7 +1477,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -1529,7 +1529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -1555,7 +1555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -1581,7 +1581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -1633,7 +1633,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -1659,7 +1659,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>56</v>
       </c>
@@ -1685,7 +1685,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>60</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>64</v>
       </c>
@@ -1737,7 +1737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>70</v>
       </c>
@@ -1763,7 +1763,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>72</v>
       </c>
@@ -1789,7 +1789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>76</v>
       </c>
